--- a/data/processed/unmatched_columns/unmatched_湖南商务职业技术学院.xlsx
+++ b/data/processed/unmatched_columns/unmatched_湖南商务职业技术学院.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>学费
-（元/年）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>_源文件</t>
         </is>
       </c>
@@ -457,10 +451,7 @@
           <t>经济贸易学院</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>3850</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -472,10 +463,7 @@
           <t>经济贸易学院</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>3850</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -487,10 +475,7 @@
           <t>经济贸易学院</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>3500</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -502,10 +487,7 @@
           <t>经济贸易学院</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3500</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -517,10 +499,7 @@
           <t>经济贸易学院</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>5500</v>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -532,10 +511,7 @@
           <t>茶学院</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>4600</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -547,10 +523,7 @@
           <t>茶学院</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -562,10 +535,7 @@
           <t>电子商务学院</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>3850</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -577,10 +547,7 @@
           <t>电子商务学院</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>3500</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -592,10 +559,7 @@
           <t>电子商务学院</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>3500</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -607,10 +571,7 @@
           <t>会计学院</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>3850</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -622,10 +583,7 @@
           <t>会计学院</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>3850</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -637,10 +595,7 @@
           <t>会计学院</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>3500</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -652,10 +607,7 @@
           <t>会计学院</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>3500</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -667,10 +619,7 @@
           <t>会计学院</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>3500</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -682,10 +631,7 @@
           <t>旅游管理学院</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>4600</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -697,10 +643,7 @@
           <t>旅游管理学院</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>4600</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -712,10 +655,7 @@
           <t>旅游管理学院</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>3200</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -727,10 +667,7 @@
           <t>旅游管理学院</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>4600</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -742,10 +679,7 @@
           <t>旅游管理学院</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>8000</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -757,10 +691,7 @@
           <t>商务信息技术学院</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>7800</v>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -772,10 +703,7 @@
           <t>商务信息技术学院</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -787,10 +715,7 @@
           <t>商务信息技术学院</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>4600</v>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -802,10 +727,7 @@
           <t>商务信息技术学院</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>4600</v>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
@@ -817,10 +739,7 @@
           <t>商务信息技术学院</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>4600</v>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>湖南商务职业技术学院.xlsx</t>
         </is>
